--- a/Trường dữ liệu.xlsx
+++ b/Trường dữ liệu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Developer\CPP\DSA-UTH\BTL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{574C9378-1ED3-42C5-AB19-06542AEB8156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED9CE38-F3F9-4DB8-A488-3DBA72BA1BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{D63F662F-CF48-42E9-9A77-B9667F0A9FF7}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="14400" windowHeight="7810" xr2:uid="{D63F662F-CF48-42E9-9A77-B9667F0A9FF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
   <si>
     <t>ID</t>
   </si>
@@ -151,6 +151,24 @@
   </si>
   <si>
     <t>Ticket</t>
+  </si>
+  <si>
+    <t>TotalLine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tổng số tuyến </t>
+  </si>
+  <si>
+    <t>TotalTrip</t>
+  </si>
+  <si>
+    <t>Tổng số chuyến</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Price </t>
   </si>
 </sst>
 </file>
@@ -561,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A2F683A-C684-4F67-9579-F18658C4A4A9}">
-  <dimension ref="B2:L20"/>
+  <dimension ref="B2:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -614,6 +632,7 @@
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B5" s="5"/>
+      <c r="C5" s="2"/>
       <c r="D5" t="s">
         <v>23</v>
       </c>
@@ -621,169 +640,207 @@
         <v>1</v>
       </c>
       <c r="J5" s="6"/>
-      <c r="L5" t="s">
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B6" s="5"/>
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="6"/>
+      <c r="L6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B7" s="5" t="s">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>3</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K8" t="s">
         <v>26</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L8" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B8" s="5"/>
-      <c r="D8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>6</v>
-      </c>
-      <c r="J8" s="6"/>
-      <c r="L8" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B9" s="5"/>
       <c r="D9" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J9" s="6"/>
       <c r="L9" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B10" s="5"/>
       <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B11" s="5"/>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="6"/>
+      <c r="L11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B12" s="5"/>
+      <c r="D12" t="s">
         <v>5</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="J11" s="3" t="s">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="J13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K13" t="s">
         <v>27</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B12" s="5" t="s">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D14" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B13" s="5"/>
-      <c r="D13" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B14" s="5"/>
-      <c r="D14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B15" s="5"/>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="I16" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B17" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>38</v>
-      </c>
+      <c r="B16" s="5"/>
+      <c r="D16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B17" s="5"/>
       <c r="D17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B18" s="5"/>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="E18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B19" s="5"/>
       <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="I20" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+    </row>
+    <row r="21" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="5"/>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="5"/>
+      <c r="D23" t="s">
         <v>16</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E23" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B20" s="5"/>
-      <c r="D20" t="s">
+    <row r="24" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="5"/>
+      <c r="D24" t="s">
         <v>17</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E24" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="K2:L2"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="J3:J5"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="J3:J6"/>
+    <mergeCell ref="J8:J11"/>
+    <mergeCell ref="I20:K20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Trường dữ liệu.xlsx
+++ b/Trường dữ liệu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Developer\CPP\DSA-UTH\BTL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED9CE38-F3F9-4DB8-A488-3DBA72BA1BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E253DBA9-1047-4ED0-9CCC-A3CE7418172B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="2580" windowWidth="14400" windowHeight="7810" xr2:uid="{D63F662F-CF48-42E9-9A77-B9667F0A9FF7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{D63F662F-CF48-42E9-9A77-B9667F0A9FF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="53">
   <si>
     <t>ID</t>
   </si>
@@ -81,9 +81,6 @@
     <t>Thời gian khởi hành</t>
   </si>
   <si>
-    <t>Số lượng ghế</t>
-  </si>
-  <si>
     <t>BoardingTime</t>
   </si>
   <si>
@@ -169,6 +166,33 @@
   </si>
   <si>
     <t xml:space="preserve">Price </t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>NameClient</t>
+  </si>
+  <si>
+    <t>IdClient</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>SeatClient</t>
+  </si>
+  <si>
+    <t>Ticket info</t>
+  </si>
+  <si>
+    <t>RowOfSeat</t>
+  </si>
+  <si>
+    <t>Số ghế 1 hàng</t>
+  </si>
+  <si>
+    <t>Số ghế khả dụng</t>
   </si>
 </sst>
 </file>
@@ -579,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A2F683A-C684-4F67-9579-F18658C4A4A9}">
-  <dimension ref="B2:L24"/>
+  <dimension ref="B2:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -590,91 +614,115 @@
     <col min="4" max="4" width="13.54296875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.453125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.35">
       <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4"/>
+      <c r="N2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="J3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="4"/>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="J3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="N3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B4" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J4" s="6"/>
       <c r="L4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="N4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B5" s="5"/>
       <c r="C5" s="2"/>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
         <v>1</v>
       </c>
       <c r="J5" s="6"/>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="N5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B6" s="5"/>
       <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
         <v>39</v>
-      </c>
-      <c r="E6" t="s">
-        <v>40</v>
       </c>
       <c r="J6" s="6"/>
       <c r="L6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+      <c r="N6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="N7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B8" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="N8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B9" s="5"/>
       <c r="D9" t="s">
         <v>0</v>
@@ -686,18 +734,24 @@
       <c r="L9" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="N9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B10" s="5"/>
       <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
         <v>41</v>
       </c>
-      <c r="E10" t="s">
-        <v>42</v>
-      </c>
       <c r="J10" s="6"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="N10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B11" s="5"/>
       <c r="D11" t="s">
         <v>4</v>
@@ -709,8 +763,11 @@
       <c r="L11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="N11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B12" s="5"/>
       <c r="D12" t="s">
         <v>5</v>
@@ -719,29 +776,29 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.35">
       <c r="J13" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K13" t="s">
+        <v>26</v>
+      </c>
+      <c r="L13" t="s">
         <v>27</v>
       </c>
-      <c r="L13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B15" s="5"/>
       <c r="D15" t="s">
         <v>0</v>
@@ -750,13 +807,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B16" s="5"/>
       <c r="D16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.35">
@@ -771,64 +828,73 @@
     <row r="18" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B18" s="5"/>
       <c r="D18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B19" s="5"/>
       <c r="D19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B20" s="5"/>
+      <c r="D20" t="s">
         <v>12</v>
       </c>
-      <c r="E19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="I20" s="7" t="s">
+      <c r="E20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="I21" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+    </row>
+    <row r="22" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-    </row>
-    <row r="21" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="C22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="5"/>
-      <c r="D22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="23" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B23" s="5"/>
       <c r="D23" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B24" s="5"/>
       <c r="D24" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E24" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="5"/>
+      <c r="D25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -836,11 +902,11 @@
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="B8:B12"/>
-    <mergeCell ref="B14:B19"/>
-    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B14:B20"/>
+    <mergeCell ref="B22:B25"/>
     <mergeCell ref="J3:J6"/>
     <mergeCell ref="J8:J11"/>
-    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I21:K21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Trường dữ liệu.xlsx
+++ b/Trường dữ liệu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Developer\CPP\DSA-UTH\BTL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E253DBA9-1047-4ED0-9CCC-A3CE7418172B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3414F581-0477-47EC-8E9A-314BA0B1433F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{D63F662F-CF48-42E9-9A77-B9667F0A9FF7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="55">
   <si>
     <t>ID</t>
   </si>
@@ -193,6 +193,12 @@
   </si>
   <si>
     <t>Số ghế khả dụng</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Variable</t>
   </si>
 </sst>
 </file>
@@ -270,7 +276,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -288,6 +294,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -606,7 +615,7 @@
   <dimension ref="B2:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -630,6 +639,12 @@
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" t="s">
+        <v>54</v>
+      </c>
       <c r="J3" s="6" t="s">
         <v>30</v>
       </c>
@@ -647,7 +662,7 @@
       <c r="B4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="8" t="s">
         <v>34</v>
       </c>
       <c r="D4" t="s">
@@ -666,7 +681,7 @@
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B5" s="5"/>
-      <c r="C5" s="2"/>
+      <c r="C5" s="8"/>
       <c r="D5" t="s">
         <v>22</v>
       </c>
@@ -680,6 +695,7 @@
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B6" s="5"/>
+      <c r="C6" s="8"/>
       <c r="D6" t="s">
         <v>38</v>
       </c>
@@ -703,7 +719,7 @@
       <c r="B8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="8" t="s">
         <v>35</v>
       </c>
       <c r="D8" t="s">
@@ -724,6 +740,7 @@
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B9" s="5"/>
+      <c r="C9" s="8"/>
       <c r="D9" t="s">
         <v>0</v>
       </c>
@@ -740,6 +757,7 @@
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B10" s="5"/>
+      <c r="C10" s="8"/>
       <c r="D10" t="s">
         <v>40</v>
       </c>
@@ -753,6 +771,7 @@
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B11" s="5"/>
+      <c r="C11" s="8"/>
       <c r="D11" t="s">
         <v>4</v>
       </c>
@@ -769,6 +788,7 @@
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B12" s="5"/>
+      <c r="C12" s="8"/>
       <c r="D12" t="s">
         <v>5</v>
       </c>
@@ -791,7 +811,7 @@
       <c r="B14" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D14" t="s">
@@ -800,6 +820,7 @@
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B15" s="5"/>
+      <c r="C15" s="8"/>
       <c r="D15" t="s">
         <v>0</v>
       </c>
@@ -809,6 +830,7 @@
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B16" s="5"/>
+      <c r="C16" s="8"/>
       <c r="D16" t="s">
         <v>42</v>
       </c>
@@ -818,6 +840,7 @@
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B17" s="5"/>
+      <c r="C17" s="8"/>
       <c r="D17" t="s">
         <v>11</v>
       </c>
@@ -827,6 +850,7 @@
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B18" s="5"/>
+      <c r="C18" s="8"/>
       <c r="D18" t="s">
         <v>43</v>
       </c>
@@ -836,6 +860,7 @@
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B19" s="5"/>
+      <c r="C19" s="8"/>
       <c r="D19" t="s">
         <v>50</v>
       </c>
@@ -845,6 +870,7 @@
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B20" s="5"/>
+      <c r="C20" s="8"/>
       <c r="D20" t="s">
         <v>12</v>
       </c>
@@ -898,7 +924,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="11">
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="B8:B12"/>
@@ -907,6 +933,9 @@
     <mergeCell ref="J3:J6"/>
     <mergeCell ref="J8:J11"/>
     <mergeCell ref="I21:K21"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="C14:C20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Trường dữ liệu.xlsx
+++ b/Trường dữ liệu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Developer\CPP\DSA-UTH\BTL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3414F581-0477-47EC-8E9A-314BA0B1433F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B710C2-8572-490D-A7DC-606818E87B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{D63F662F-CF48-42E9-9A77-B9667F0A9FF7}"/>
+    <workbookView xWindow="28635" yWindow="-165" windowWidth="29130" windowHeight="16530" xr2:uid="{D63F662F-CF48-42E9-9A77-B9667F0A9FF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="62">
   <si>
     <t>ID</t>
   </si>
@@ -199,6 +199,27 @@
   </si>
   <si>
     <t>Variable</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>Tổng khối lượng</t>
+  </si>
+  <si>
+    <t>Thông tin lưu</t>
+  </si>
+  <si>
+    <t>TotalWeight</t>
+  </si>
+  <si>
+    <t>PricePerkilo</t>
+  </si>
+  <si>
+    <t>giá trên 1 kg</t>
+  </si>
+  <si>
+    <t>priceOfPacket</t>
   </si>
 </sst>
 </file>
@@ -612,10 +633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A2F683A-C684-4F67-9579-F18658C4A4A9}">
-  <dimension ref="B2:N25"/>
+  <dimension ref="B1:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -626,6 +647,11 @@
     <col min="14" max="14" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="N1" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.35">
       <c r="D2" s="1" t="s">
         <v>20</v>
@@ -795,6 +821,9 @@
       <c r="E12" t="s">
         <v>8</v>
       </c>
+      <c r="N12" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.35">
       <c r="J13" s="3" t="s">
@@ -806,8 +835,11 @@
       <c r="L13" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="N13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="5" t="s">
         <v>29</v>
       </c>
@@ -818,7 +850,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="5"/>
       <c r="C15" s="8"/>
       <c r="D15" t="s">
@@ -828,7 +860,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="5"/>
       <c r="C16" s="8"/>
       <c r="D16" t="s">
@@ -838,7 +870,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="5"/>
       <c r="C17" s="8"/>
       <c r="D17" t="s">
@@ -848,7 +880,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="5"/>
       <c r="C18" s="8"/>
       <c r="D18" t="s">
@@ -858,7 +890,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="5"/>
       <c r="C19" s="8"/>
       <c r="D19" t="s">
@@ -867,8 +899,13 @@
       <c r="E19" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="J19" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+    </row>
+    <row r="20" spans="2:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="5"/>
       <c r="C20" s="8"/>
       <c r="D20" t="s">
@@ -878,48 +915,61 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="I21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-    </row>
-    <row r="22" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="5" t="s">
+    <row r="21" spans="2:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="5"/>
+      <c r="C21" s="8"/>
+      <c r="D21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="5"/>
+      <c r="C22" s="8"/>
+      <c r="D22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D24" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="5"/>
-      <c r="D23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="5"/>
-      <c r="D24" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:12" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="5"/>
       <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="5"/>
+      <c r="D26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" ht="71.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="5"/>
+      <c r="D27" t="s">
         <v>16</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E27" t="s">
         <v>19</v>
       </c>
     </row>
@@ -928,14 +978,14 @@
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="B8:B12"/>
-    <mergeCell ref="B14:B20"/>
-    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B24:B27"/>
     <mergeCell ref="J3:J6"/>
     <mergeCell ref="J8:J11"/>
-    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="J19:L19"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="C8:C12"/>
-    <mergeCell ref="C14:C20"/>
+    <mergeCell ref="C14:C22"/>
+    <mergeCell ref="B14:B22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
